--- a/datasets/Brasileirao/match_history/home_only/season-2018/historico.xlsx
+++ b/datasets/Brasileirao/match_history/home_only/season-2018/historico.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P381"/>
+  <dimension ref="A1:R381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -574,12 +586,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -634,12 +650,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2018-05-19</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>43239</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,12 +714,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>1986</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1372433021702533</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2018-05-26</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>43246</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,12 +778,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>1979</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1382073756058396</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2018-06-02</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>43253</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -814,12 +842,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>1972</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1391782212304837</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -874,12 +906,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -934,12 +970,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -994,12 +1034,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1054,12 +1098,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1114,12 +1162,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1174,12 +1226,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1234,12 +1290,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1294,12 +1354,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1354,12 +1418,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2018-10-21</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>43394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1414,12 +1482,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1602532343874526</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2018-11-03</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>43407</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1474,12 +1546,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>1818</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1623501267033928</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1534,12 +1610,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>43425</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1594,12 +1674,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1652988882215865</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1654,12 +1738,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2018-04-21</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>43211</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1714,12 +1802,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1334537904517426</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1774,12 +1866,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2018-05-19</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>43239</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1834,12 +1930,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>1986</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1372433021702533</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2018-05-31</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>43251</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1894,12 +1994,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>1974</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.138900142958987</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1954,12 +2058,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2014,12 +2122,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2074,12 +2186,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2018-07-21</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>43302</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2134,12 +2250,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>1923</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.1461678003160518</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2194,12 +2314,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2254,12 +2378,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2018-08-23</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>43335</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2314,12 +2442,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>1890</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1510718088363708</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2374,12 +2506,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2018-09-08</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>43351</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2434,12 +2570,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>1874</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1535083985148223</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2494,12 +2634,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2018-10-13</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>43386</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2554,12 +2698,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>1839</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1589763229682169</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2614,12 +2762,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2018-11-15</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>43419</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2674,12 +2826,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>1806</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1643100643304005</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>43425</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2734,12 +2890,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.1652988882215865</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2018-12-01</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>43435</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2794,12 +2954,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>1790</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1669601696670407</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2854,12 +3018,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2914,12 +3082,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2018-05-21</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>43241</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2974,12 +3146,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>1984</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.1375180634442807</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3034,12 +3210,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2018-06-02</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>43253</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3094,12 +3274,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>1972</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1391782212304837</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3154,12 +3338,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2018-07-23</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>43304</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3214,12 +3402,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>1921</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.1464604284472725</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3274,12 +3466,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3334,12 +3530,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2018-08-26</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>43338</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3394,12 +3594,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>1887</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.151525704766353</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3454,12 +3658,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3514,12 +3722,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3574,12 +3786,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3634,12 +3850,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2018-10-22</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>43395</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3694,12 +3914,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>1830</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1604135677751727</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3754,12 +3978,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2018-11-15</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>43419</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3814,12 +4042,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>1806</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1643100643304005</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>43425</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3874,12 +4106,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.1652988882215865</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3934,12 +4170,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3994,12 +4234,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4054,12 +4298,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2018-05-12</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>43232</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4114,12 +4362,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>1993</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.1362859536839334</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4174,12 +4426,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4234,12 +4490,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4294,12 +4554,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4354,12 +4618,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2018-07-26</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>43307</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4414,12 +4682,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>1918</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1469004694641088</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2018-08-04</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>43316</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4474,12 +4746,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>1909</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.1482285410469374</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4534,12 +4810,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4594,12 +4874,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2018-09-01</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>43344</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4654,12 +4938,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>1881</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.1524375919207545</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2018-09-15</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>43358</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4714,12 +5002,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>1867</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1545867270511319</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4774,12 +5066,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2018-10-06</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>43379</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4834,12 +5130,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>1846</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.1578673745550876</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4894,12 +5194,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4954,12 +5258,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5014,12 +5322,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5074,12 +5386,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2018-04-16</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>43206</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5134,12 +5450,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>2019</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1327881868950491</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2018-05-05</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>43225</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5194,12 +5514,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.1353352832366127</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5254,12 +5578,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5314,12 +5642,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2018-06-05</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>43256</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5374,12 +5706,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>1969</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.1395963828229427</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2018-06-12</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>43263</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5434,12 +5770,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>1962</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.1405769856083274</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2018-07-21</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>43302</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5494,12 +5834,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>1923</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1461678003160518</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5554,12 +5898,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5614,12 +5962,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2018-08-26</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>43338</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5674,12 +6026,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>1887</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.151525704766353</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5734,12 +6090,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2018-09-08</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>43351</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5794,12 +6154,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>1874</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.1535083985148223</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2018-09-22</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>43365</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5854,12 +6218,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>1860</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1556726303679973</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2018-10-06</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>43379</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5914,12 +6282,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>1846</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.1578673745550876</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2018-10-20</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>43393</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5974,12 +6346,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.1600930612529801</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6034,12 +6410,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2018-11-15</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>43419</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6094,12 +6474,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>1806</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.1643100643304005</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6154,12 +6538,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2018-11-26</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>43430</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6214,12 +6602,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>1795</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.1661274523468331</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6274,12 +6666,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6334,12 +6730,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2018-05-19</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>43239</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6394,12 +6794,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>1986</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.1372433021702533</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2018-05-26</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>43246</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6454,12 +6858,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>1979</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.1382073756058396</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2018-06-02</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>43253</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6514,12 +6922,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>1972</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.1391782212304837</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6574,12 +6986,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6634,12 +7050,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2018-07-25</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>43306</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6694,12 +7114,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>1919</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.1467536424204021</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2018-08-06</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>43318</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6754,12 +7178,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>1907</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.1485252947838503</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6814,12 +7242,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2018-08-23</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>43335</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -6874,12 +7306,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>1890</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.1510718088363708</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -6934,12 +7370,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2018-09-10</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>43353</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6994,12 +7434,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>1872</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1538157225334293</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7054,12 +7498,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7114,12 +7562,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2018-11-03</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>43407</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7174,12 +7626,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>1818</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.1623501267033928</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7234,12 +7690,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2018-11-17</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>43421</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7294,12 +7754,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>1804</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.1646390132983796</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2018-12-01</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>43435</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7354,12 +7818,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>1790</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.1669601696670407</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7414,12 +7882,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q116" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7474,12 +7946,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q117" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -7534,12 +8010,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q118" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2018-05-31</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>43251</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7594,12 +8074,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q119" t="n">
+        <v>1974</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.138900142958987</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2018-06-09</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>43260</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7654,12 +8138,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q120" t="n">
+        <v>1965</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.1401558866158154</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2018-07-19</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>43300</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -7714,12 +8202,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q121" t="n">
+        <v>1925</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.1458757568562274</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -7774,12 +8266,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q122" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -7834,12 +8330,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q123" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -7894,12 +8394,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q124" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2018-08-29</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>43341</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -7954,12 +8458,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q125" t="n">
+        <v>1884</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.1519809644287009</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8014,12 +8522,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q126" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8074,12 +8586,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q127" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -8134,12 +8650,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q128" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2018-10-06</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>43379</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -8194,12 +8714,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q129" t="n">
+        <v>1846</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.1578673745550876</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8254,12 +8778,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q130" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8314,12 +8842,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q131" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2018-11-10</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>43414</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8374,12 +8906,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q132" t="n">
+        <v>1811</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.1634905644657009</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>43425</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8434,12 +8970,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q133" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.1652988882215865</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -8494,12 +9034,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q134" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2018-04-14</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>43204</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -8554,12 +9098,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.1325228759206704</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -8614,12 +9162,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q136" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -8674,12 +9226,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q137" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8734,12 +9290,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q138" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -8794,12 +9354,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q139" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2018-07-19</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>43300</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -8854,12 +9418,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q140" t="n">
+        <v>1925</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.1458757568562274</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -8914,12 +9482,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q141" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -8974,12 +9546,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q142" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9034,12 +9610,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q143" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9094,12 +9674,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q144" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -9154,12 +9738,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q145" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -9214,12 +9802,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q146" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9274,12 +9866,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q147" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2018-10-21</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>43394</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9334,12 +9930,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q148" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.1602532343874526</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2018-10-24</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>43397</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -9394,12 +9994,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q149" t="n">
+        <v>1828</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.1607347159518504</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -9454,12 +10058,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q150" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -9514,12 +10122,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q151" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>43425</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -9574,12 +10186,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q152" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.1652988882215865</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -9634,12 +10250,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q153" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2018-04-16</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>43206</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -9694,12 +10314,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q154" t="n">
+        <v>2019</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.1327881868950491</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2018-04-28</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>43218</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -9754,12 +10378,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q155" t="n">
+        <v>2007</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.1343912442452489</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2018-05-14</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>43234</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -9814,12 +10442,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q156" t="n">
+        <v>1991</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.1365587983450142</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -9874,12 +10506,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q157" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -9934,12 +10570,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q158" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -9994,12 +10634,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q159" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2018-07-26</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>43307</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -10054,12 +10698,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q160" t="n">
+        <v>1918</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.1469004694641088</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2018-08-04</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>43316</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -10114,12 +10762,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q161" t="n">
+        <v>1909</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.1482285410469374</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -10174,12 +10826,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q162" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -10234,12 +10890,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q163" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -10294,12 +10954,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q164" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -10354,12 +11018,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q165" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -10414,12 +11082,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q166" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2018-10-09</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>43382</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -10474,12 +11146,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q167" t="n">
+        <v>1843</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.1583416877928747</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2018-10-20</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>43393</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -10534,12 +11210,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q168" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0.1600930612529801</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -10594,12 +11274,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q169" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2018-11-10</t>
-        </is>
+      <c r="A170" s="2" t="n">
+        <v>43414</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -10654,12 +11338,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q170" t="n">
+        <v>1811</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0.1634905644657009</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A171" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -10714,12 +11402,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q171" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2018-11-26</t>
-        </is>
+      <c r="A172" s="2" t="n">
+        <v>43430</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -10774,12 +11466,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q172" t="n">
+        <v>1795</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0.1661274523468331</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2018-04-14</t>
-        </is>
+      <c r="A173" s="2" t="n">
+        <v>43204</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -10834,12 +11530,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q173" t="n">
+        <v>2021</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0.1325228759206704</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A174" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -10894,12 +11594,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q174" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A175" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -10954,12 +11658,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q175" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A176" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -11014,12 +11722,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q176" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A177" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -11074,12 +11786,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q177" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2018-07-19</t>
-        </is>
+      <c r="A178" s="2" t="n">
+        <v>43300</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -11134,12 +11850,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q178" t="n">
+        <v>1925</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.1458757568562274</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2018-07-25</t>
-        </is>
+      <c r="A179" s="2" t="n">
+        <v>43306</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11194,12 +11914,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q179" t="n">
+        <v>1919</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0.1467536424204021</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A180" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -11254,12 +11978,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q180" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2018-08-18</t>
-        </is>
+      <c r="A181" s="2" t="n">
+        <v>43330</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -11314,12 +12042,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q181" t="n">
+        <v>1895</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0.1503183350464003</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A182" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -11374,12 +12106,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q182" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2018-09-06</t>
-        </is>
+      <c r="A183" s="2" t="n">
+        <v>43349</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -11434,12 +12170,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q183" t="n">
+        <v>1876</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0.1532016885300142</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A184" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -11494,12 +12234,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q184" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2018-09-27</t>
-        </is>
+      <c r="A185" s="2" t="n">
+        <v>43370</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -11554,12 +12298,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q185" t="n">
+        <v>1855</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0.1564529426749547</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A186" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -11614,12 +12362,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q186" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2018-10-13</t>
-        </is>
+      <c r="A187" s="2" t="n">
+        <v>43386</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -11674,12 +12426,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q187" t="n">
+        <v>1839</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0.1589763229682169</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A188" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -11734,12 +12490,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q188" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2018-11-12</t>
-        </is>
+      <c r="A189" s="2" t="n">
+        <v>43416</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -11794,12 +12554,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q189" t="n">
+        <v>1809</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0.1638178727938577</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2018-11-21</t>
-        </is>
+      <c r="A190" s="2" t="n">
+        <v>43425</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -11854,12 +12618,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q190" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0.1652988882215865</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2018-11-24</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>43428</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -11914,12 +12682,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q191" t="n">
+        <v>1797</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0.1657955294756515</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2018-04-21</t>
-        </is>
+      <c r="A192" s="2" t="n">
+        <v>43211</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -11974,12 +12746,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q192" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0.1334537904517426</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A193" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -12034,12 +12810,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q193" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A194" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -12094,12 +12874,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q194" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A195" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -12154,12 +12938,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q195" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A196" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -12214,12 +13002,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q196" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A197" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -12274,12 +13066,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q197" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A198" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -12334,12 +13130,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q198" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R198" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A199" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -12394,12 +13194,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q199" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2018-07-30</t>
-        </is>
+      <c r="A200" s="2" t="n">
+        <v>43311</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -12454,12 +13258,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q200" t="n">
+        <v>1914</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0.1474892481142275</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2018-08-11</t>
-        </is>
+      <c r="A201" s="2" t="n">
+        <v>43323</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -12514,12 +13322,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q201" t="n">
+        <v>1902</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0.1492697809221031</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A202" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -12574,12 +13386,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q202" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A203" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -12634,12 +13450,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q203" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A204" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -12694,12 +13514,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q204" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2018-09-29</t>
-        </is>
+      <c r="A205" s="2" t="n">
+        <v>43372</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -12754,12 +13578,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q205" t="n">
+        <v>1853</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0.1567661616748983</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2018-10-13</t>
-        </is>
+      <c r="A206" s="2" t="n">
+        <v>43386</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -12814,12 +13642,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q206" t="n">
+        <v>1839</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0.1589763229682169</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A207" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -12874,12 +13706,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q207" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R207" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A208" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -12934,12 +13770,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q208" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A209" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -12994,12 +13834,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q209" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A210" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -13054,12 +13898,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q210" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A211" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -13114,12 +13962,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q211" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A212" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -13174,12 +14026,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q212" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A213" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -13234,12 +14090,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q213" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2018-05-26</t>
-        </is>
+      <c r="A214" s="2" t="n">
+        <v>43246</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -13294,12 +14154,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q214" t="n">
+        <v>1979</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0.1382073756058396</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2018-06-07</t>
-        </is>
+      <c r="A215" s="2" t="n">
+        <v>43258</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -13354,12 +14218,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q215" t="n">
+        <v>1967</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0.1398758549675758</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A216" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -13414,12 +14282,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q216" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2018-07-25</t>
-        </is>
+      <c r="A217" s="2" t="n">
+        <v>43306</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -13474,12 +14346,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q217" t="n">
+        <v>1919</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0.1467536424204021</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -13534,12 +14410,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q218" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2018-08-13</t>
-        </is>
+      <c r="A219" s="2" t="n">
+        <v>43325</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -13594,12 +14474,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q219" t="n">
+        <v>1900</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0.149568619222635</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A220" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -13654,12 +14538,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q220" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2018-09-06</t>
-        </is>
+      <c r="A221" s="2" t="n">
+        <v>43349</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -13714,12 +14602,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q221" t="n">
+        <v>1876</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0.1532016885300142</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A222" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -13774,12 +14666,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q222" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2018-09-29</t>
-        </is>
+      <c r="A223" s="2" t="n">
+        <v>43372</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -13834,12 +14730,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q223" t="n">
+        <v>1853</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0.1567661616748983</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2018-10-08</t>
-        </is>
+      <c r="A224" s="2" t="n">
+        <v>43381</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -13894,12 +14794,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q224" t="n">
+        <v>1844</v>
+      </c>
+      <c r="R224" t="n">
+        <v>0.158183425249542</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2018-10-21</t>
-        </is>
+      <c r="A225" s="2" t="n">
+        <v>43394</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -13954,12 +14858,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q225" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0.1602532343874526</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2018-11-03</t>
-        </is>
+      <c r="A226" s="2" t="n">
+        <v>43407</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -14014,12 +14922,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q226" t="n">
+        <v>1818</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0.1623501267033928</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A227" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -14074,12 +14986,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q227" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2018-11-19</t>
-        </is>
+      <c r="A228" s="2" t="n">
+        <v>43423</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -14134,12 +15050,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q228" t="n">
+        <v>1802</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0.1649686208226314</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A229" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -14194,12 +15114,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q229" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A230" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -14254,12 +15178,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q230" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A231" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -14314,12 +15242,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q231" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A232" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -14374,12 +15306,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q232" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2018-05-31</t>
-        </is>
+      <c r="A233" s="2" t="n">
+        <v>43251</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -14434,12 +15370,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q233" t="n">
+        <v>1974</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0.138900142958987</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A234" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -14494,12 +15434,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q234" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2018-06-09</t>
-        </is>
+      <c r="A235" s="2" t="n">
+        <v>43260</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -14554,12 +15498,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q235" t="n">
+        <v>1965</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0.1401558866158154</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A236" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -14614,12 +15562,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q236" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2018-07-25</t>
-        </is>
+      <c r="A237" s="2" t="n">
+        <v>43306</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -14674,12 +15626,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q237" t="n">
+        <v>1919</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0.1467536424204021</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2018-08-04</t>
-        </is>
+      <c r="A238" s="2" t="n">
+        <v>43316</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -14734,12 +15690,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q238" t="n">
+        <v>1909</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0.1482285410469374</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2018-08-18</t>
-        </is>
+      <c r="A239" s="2" t="n">
+        <v>43330</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -14794,12 +15754,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q239" t="n">
+        <v>1895</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0.1503183350464003</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A240" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -14854,12 +15818,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q240" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2018-09-01</t>
-        </is>
+      <c r="A241" s="2" t="n">
+        <v>43344</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -14914,12 +15882,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q241" t="n">
+        <v>1881</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0.1524375919207545</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A242" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -14974,12 +15946,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q242" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A243" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -15034,12 +16010,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q243" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2018-10-05</t>
-        </is>
+      <c r="A244" s="2" t="n">
+        <v>43378</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -15094,12 +16074,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q244" t="n">
+        <v>1847</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0.1577095860879152</v>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -15154,12 +16138,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q245" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2018-11-10</t>
-        </is>
+      <c r="A246" s="2" t="n">
+        <v>43414</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -15214,12 +16202,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q246" t="n">
+        <v>1811</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0.1634905644657009</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2018-11-17</t>
-        </is>
+      <c r="A247" s="2" t="n">
+        <v>43421</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -15274,12 +16266,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q247" t="n">
+        <v>1804</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0.1646390132983796</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A248" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -15334,12 +16330,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q248" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A249" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -15394,12 +16394,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q249" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2018-05-07</t>
-        </is>
+      <c r="A250" s="2" t="n">
+        <v>43227</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -15454,12 +16458,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q250" t="n">
+        <v>1998</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0.1356062246541897</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A251" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -15514,12 +16522,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q251" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A252" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -15574,12 +16586,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q252" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2018-06-09</t>
-        </is>
+      <c r="A253" s="2" t="n">
+        <v>43260</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -15634,12 +16650,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q253" t="n">
+        <v>1965</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0.1401558866158154</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2018-07-19</t>
-        </is>
+      <c r="A254" s="2" t="n">
+        <v>43300</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -15694,12 +16714,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q254" t="n">
+        <v>1925</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0.1458757568562274</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A255" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -15754,12 +16778,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q255" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A256" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -15814,12 +16842,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q256" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A257" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -15874,12 +16906,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q257" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A258" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -15934,12 +16970,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q258" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2018-09-13</t>
-        </is>
+      <c r="A259" s="2" t="n">
+        <v>43356</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -15994,12 +17034,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q259" t="n">
+        <v>1869</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0.1542778625644712</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2018-09-17</t>
-        </is>
+      <c r="A260" s="2" t="n">
+        <v>43360</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -16054,12 +17098,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q260" t="n">
+        <v>1865</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0.154896209884907</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2018-09-24</t>
-        </is>
+      <c r="A261" s="2" t="n">
+        <v>43367</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -16114,12 +17162,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q261" t="n">
+        <v>1858</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0.1559842871816614</v>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2018-10-06</t>
-        </is>
+      <c r="A262" s="2" t="n">
+        <v>43379</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -16174,12 +17226,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q262" t="n">
+        <v>1846</v>
+      </c>
+      <c r="R262" t="n">
+        <v>0.1578673745550876</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A263" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -16234,12 +17290,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q263" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A264" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -16294,12 +17354,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q264" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>2018-11-15</t>
-        </is>
+      <c r="A265" s="2" t="n">
+        <v>43419</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -16354,12 +17418,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q265" t="n">
+        <v>1806</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0.1643100643304005</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A266" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -16414,12 +17482,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q266" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A267" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -16474,12 +17546,16 @@
           <t>chapecoense</t>
         </is>
       </c>
+      <c r="Q267" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R267" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A268" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -16534,12 +17610,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q268" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A269" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -16594,12 +17674,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q269" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R269" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2018-05-14</t>
-        </is>
+      <c r="A270" s="2" t="n">
+        <v>43234</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -16654,12 +17738,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q270" t="n">
+        <v>1991</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0.1365587983450142</v>
+      </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A271" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -16714,12 +17802,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q271" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -16774,12 +17866,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q272" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A273" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -16834,12 +17930,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q273" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A274" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -16894,12 +17994,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q274" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>2018-07-28</t>
-        </is>
+      <c r="A275" s="2" t="n">
+        <v>43309</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -16954,12 +18058,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q275" t="n">
+        <v>1916</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0.1471945643999412</v>
+      </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>2018-08-08</t>
-        </is>
+      <c r="A276" s="2" t="n">
+        <v>43320</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -17014,12 +18122,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q276" t="n">
+        <v>1905</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0.1488226426221404</v>
+      </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>2018-08-11</t>
-        </is>
+      <c r="A277" s="2" t="n">
+        <v>43323</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -17074,12 +18186,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q277" t="n">
+        <v>1902</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0.1492697809221031</v>
+      </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>2018-08-29</t>
-        </is>
+      <c r="A278" s="2" t="n">
+        <v>43341</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -17134,12 +18250,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q278" t="n">
+        <v>1884</v>
+      </c>
+      <c r="R278" t="n">
+        <v>0.1519809644287009</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A279" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -17194,12 +18314,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q279" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>2018-09-15</t>
-        </is>
+      <c r="A280" s="2" t="n">
+        <v>43358</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -17254,12 +18378,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q280" t="n">
+        <v>1867</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0.1545867270511319</v>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>2018-09-30</t>
-        </is>
+      <c r="A281" s="2" t="n">
+        <v>43373</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -17314,12 +18442,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q281" t="n">
+        <v>1852</v>
+      </c>
+      <c r="R281" t="n">
+        <v>0.1569230062457882</v>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>2018-10-15</t>
-        </is>
+      <c r="A282" s="2" t="n">
+        <v>43388</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -17374,12 +18506,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q282" t="n">
+        <v>1837</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0.1592945937788737</v>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>2018-10-29</t>
-        </is>
+      <c r="A283" s="2" t="n">
+        <v>43402</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -17434,12 +18570,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q283" t="n">
+        <v>1823</v>
+      </c>
+      <c r="R283" t="n">
+        <v>0.161540402068389</v>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A284" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -17494,12 +18634,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q284" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A285" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -17554,12 +18698,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q285" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R285" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A286" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -17614,12 +18762,16 @@
           <t>ceara</t>
         </is>
       </c>
+      <c r="Q286" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A287" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -17674,12 +18826,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q287" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>2018-05-05</t>
-        </is>
+      <c r="A288" s="2" t="n">
+        <v>43225</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -17734,12 +18890,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q288" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R288" t="n">
+        <v>0.1353352832366127</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A289" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -17794,12 +18954,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q289" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A290" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -17854,12 +19018,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q290" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R290" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>2018-06-02</t>
-        </is>
+      <c r="A291" s="2" t="n">
+        <v>43253</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -17914,12 +19082,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q291" t="n">
+        <v>1972</v>
+      </c>
+      <c r="R291" t="n">
+        <v>0.1391782212304837</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>2018-06-09</t>
-        </is>
+      <c r="A292" s="2" t="n">
+        <v>43260</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -17974,12 +19146,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q292" t="n">
+        <v>1965</v>
+      </c>
+      <c r="R292" t="n">
+        <v>0.1401558866158154</v>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>2018-07-19</t>
-        </is>
+      <c r="A293" s="2" t="n">
+        <v>43300</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -18034,12 +19210,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q293" t="n">
+        <v>1925</v>
+      </c>
+      <c r="R293" t="n">
+        <v>0.1458757568562274</v>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A294" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -18094,12 +19274,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q294" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R294" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A295" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -18154,12 +19338,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q295" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R295" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>2018-08-20</t>
-        </is>
+      <c r="A296" s="2" t="n">
+        <v>43332</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -18214,12 +19402,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q296" t="n">
+        <v>1893</v>
+      </c>
+      <c r="R296" t="n">
+        <v>0.1506192725536879</v>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>2018-08-26</t>
-        </is>
+      <c r="A297" s="2" t="n">
+        <v>43338</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -18274,12 +19466,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q297" t="n">
+        <v>1887</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0.151525704766353</v>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>2018-09-01</t>
-        </is>
+      <c r="A298" s="2" t="n">
+        <v>43344</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -18334,12 +19530,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q298" t="n">
+        <v>1881</v>
+      </c>
+      <c r="R298" t="n">
+        <v>0.1524375919207545</v>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>2018-09-15</t>
-        </is>
+      <c r="A299" s="2" t="n">
+        <v>43358</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -18394,12 +19594,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q299" t="n">
+        <v>1867</v>
+      </c>
+      <c r="R299" t="n">
+        <v>0.1545867270511319</v>
+      </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>2018-09-24</t>
-        </is>
+      <c r="A300" s="2" t="n">
+        <v>43367</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -18454,12 +19658,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q300" t="n">
+        <v>1858</v>
+      </c>
+      <c r="R300" t="n">
+        <v>0.1559842871816614</v>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>2018-10-14</t>
-        </is>
+      <c r="A301" s="2" t="n">
+        <v>43387</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -18514,12 +19722,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q301" t="n">
+        <v>1838</v>
+      </c>
+      <c r="R301" t="n">
+        <v>0.1591353788058492</v>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>2018-10-26</t>
-        </is>
+      <c r="A302" s="2" t="n">
+        <v>43399</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -18574,12 +19786,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q302" t="n">
+        <v>1826</v>
+      </c>
+      <c r="R302" t="n">
+        <v>0.1610565070676062</v>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A303" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -18634,12 +19850,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q303" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R303" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A304" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -18694,12 +19914,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q304" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R304" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A305" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -18754,12 +19978,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q305" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R305" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>2018-04-23</t>
-        </is>
+      <c r="A306" s="2" t="n">
+        <v>43213</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -18814,12 +20042,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q306" t="n">
+        <v>2012</v>
+      </c>
+      <c r="R306" t="n">
+        <v>0.1337209651182544</v>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A307" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -18874,12 +20106,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q307" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R307" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A308" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -18934,12 +20170,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q308" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R308" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A309" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -18994,12 +20234,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q309" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R309" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A310" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -19054,12 +20298,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q310" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R310" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A311" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -19114,12 +20362,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q311" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R311" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A312" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -19174,12 +20426,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q312" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R312" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A313" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -19234,12 +20490,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q313" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R313" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A314" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -19294,12 +20554,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q314" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R314" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A315" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -19354,12 +20618,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q315" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R315" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A316" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -19414,12 +20682,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q316" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R316" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>2018-09-08</t>
-        </is>
+      <c r="A317" s="2" t="n">
+        <v>43351</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -19474,12 +20746,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q317" t="n">
+        <v>1874</v>
+      </c>
+      <c r="R317" t="n">
+        <v>0.1535083985148223</v>
+      </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A318" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -19534,12 +20810,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q318" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R318" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>2018-10-05</t>
-        </is>
+      <c r="A319" s="2" t="n">
+        <v>43378</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -19594,12 +20874,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q319" t="n">
+        <v>1847</v>
+      </c>
+      <c r="R319" t="n">
+        <v>0.1577095860879152</v>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>2018-10-20</t>
-        </is>
+      <c r="A320" s="2" t="n">
+        <v>43393</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -19654,12 +20938,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q320" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R320" t="n">
+        <v>0.1600930612529801</v>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>2018-11-05</t>
-        </is>
+      <c r="A321" s="2" t="n">
+        <v>43409</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -19714,12 +21002,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q321" t="n">
+        <v>1816</v>
+      </c>
+      <c r="R321" t="n">
+        <v>0.1626751518736281</v>
+      </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A322" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -19774,12 +21066,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q322" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R322" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A323" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -19834,12 +21130,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q323" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R323" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A324" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -19894,12 +21194,16 @@
           <t>sport_recife</t>
         </is>
       </c>
+      <c r="Q324" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R324" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A325" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -19954,12 +21258,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q325" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R325" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>2018-04-30</t>
-        </is>
+      <c r="A326" s="2" t="n">
+        <v>43220</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -20014,12 +21322,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q326" t="n">
+        <v>2005</v>
+      </c>
+      <c r="R326" t="n">
+        <v>0.1346602956955059</v>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A327" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -20074,12 +21386,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q327" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A328" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -20134,12 +21450,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q328" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R328" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A329" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -20194,12 +21514,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q329" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>2018-06-07</t>
-        </is>
+      <c r="A330" s="2" t="n">
+        <v>43258</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -20254,12 +21578,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q330" t="n">
+        <v>1967</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0.1398758549675758</v>
+      </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A331" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -20314,12 +21642,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q331" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>2018-07-26</t>
-        </is>
+      <c r="A332" s="2" t="n">
+        <v>43307</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -20374,12 +21706,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q332" t="n">
+        <v>1918</v>
+      </c>
+      <c r="R332" t="n">
+        <v>0.1469004694641088</v>
+      </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A333" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -20434,12 +21770,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q333" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R333" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A334" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -20494,12 +21834,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q334" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R334" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>2018-08-26</t>
-        </is>
+      <c r="A335" s="2" t="n">
+        <v>43338</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -20554,12 +21898,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q335" t="n">
+        <v>1887</v>
+      </c>
+      <c r="R335" t="n">
+        <v>0.151525704766353</v>
+      </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>2018-09-06</t>
-        </is>
+      <c r="A336" s="2" t="n">
+        <v>43349</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -20614,12 +21962,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q336" t="n">
+        <v>1876</v>
+      </c>
+      <c r="R336" t="n">
+        <v>0.1532016885300142</v>
+      </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A337" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -20674,12 +22026,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q337" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R337" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>2018-09-29</t>
-        </is>
+      <c r="A338" s="2" t="n">
+        <v>43372</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -20734,12 +22090,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q338" t="n">
+        <v>1853</v>
+      </c>
+      <c r="R338" t="n">
+        <v>0.1567661616748983</v>
+      </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>2018-10-20</t>
-        </is>
+      <c r="A339" s="2" t="n">
+        <v>43393</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -20794,12 +22154,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q339" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R339" t="n">
+        <v>0.1600930612529801</v>
+      </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A340" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -20854,12 +22218,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q340" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R340" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>2018-11-10</t>
-        </is>
+      <c r="A341" s="2" t="n">
+        <v>43414</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -20914,12 +22282,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q341" t="n">
+        <v>1811</v>
+      </c>
+      <c r="R341" t="n">
+        <v>0.1634905644657009</v>
+      </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A342" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -20974,12 +22346,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q342" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R342" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A343" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -21034,12 +22410,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q343" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R343" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>2018-04-14</t>
-        </is>
+      <c r="A344" s="2" t="n">
+        <v>43204</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -21094,12 +22474,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q344" t="n">
+        <v>2021</v>
+      </c>
+      <c r="R344" t="n">
+        <v>0.1325228759206704</v>
+      </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A345" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -21154,12 +22538,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q345" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R345" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A346" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -21214,12 +22602,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q346" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R346" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A347" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -21274,12 +22666,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q347" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R347" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>2018-06-06</t>
-        </is>
+      <c r="A348" s="2" t="n">
+        <v>43257</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -21334,12 +22730,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q348" t="n">
+        <v>1968</v>
+      </c>
+      <c r="R348" t="n">
+        <v>0.1397360490272289</v>
+      </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A349" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -21394,12 +22794,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q349" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R349" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>2018-07-26</t>
-        </is>
+      <c r="A350" s="2" t="n">
+        <v>43307</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -21454,12 +22858,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q350" t="n">
+        <v>1918</v>
+      </c>
+      <c r="R350" t="n">
+        <v>0.1469004694641088</v>
+      </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A351" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -21514,12 +22922,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q351" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R351" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A352" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -21574,12 +22986,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q352" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R352" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>2018-08-26</t>
-        </is>
+      <c r="A353" s="2" t="n">
+        <v>43338</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -21634,12 +23050,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q353" t="n">
+        <v>1887</v>
+      </c>
+      <c r="R353" t="n">
+        <v>0.151525704766353</v>
+      </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>2018-09-01</t>
-        </is>
+      <c r="A354" s="2" t="n">
+        <v>43344</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -21694,12 +23114,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q354" t="n">
+        <v>1881</v>
+      </c>
+      <c r="R354" t="n">
+        <v>0.1524375919207545</v>
+      </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A355" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -21754,12 +23178,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q355" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R355" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A356" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -21814,12 +23242,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q356" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>2018-10-05</t>
-        </is>
+      <c r="A357" s="2" t="n">
+        <v>43378</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -21874,12 +23306,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q357" t="n">
+        <v>1847</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0.1577095860879152</v>
+      </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>2018-10-21</t>
-        </is>
+      <c r="A358" s="2" t="n">
+        <v>43394</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -21934,12 +23370,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q358" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R358" t="n">
+        <v>0.1602532343874526</v>
+      </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>2018-10-26</t>
-        </is>
+      <c r="A359" s="2" t="n">
+        <v>43399</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -21994,12 +23434,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q359" t="n">
+        <v>1826</v>
+      </c>
+      <c r="R359" t="n">
+        <v>0.1610565070676062</v>
+      </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A360" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -22054,12 +23498,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q360" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R360" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>2018-11-17</t>
-        </is>
+      <c r="A361" s="2" t="n">
+        <v>43421</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -22114,12 +23562,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q361" t="n">
+        <v>1804</v>
+      </c>
+      <c r="R361" t="n">
+        <v>0.1646390132983796</v>
+      </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A362" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -22174,12 +23626,16 @@
           <t>vitoria</t>
         </is>
       </c>
+      <c r="Q362" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R362" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A363" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -22234,12 +23690,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q363" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A364" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -22294,12 +23754,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q364" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A365" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -22354,12 +23818,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q365" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A366" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -22414,12 +23882,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q366" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R366" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>2018-06-04</t>
-        </is>
+      <c r="A367" s="2" t="n">
+        <v>43255</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -22474,12 +23946,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q367" t="n">
+        <v>1970</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0.1394568562150509</v>
+      </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>2018-06-07</t>
-        </is>
+      <c r="A368" s="2" t="n">
+        <v>43258</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -22534,12 +24010,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q368" t="n">
+        <v>1967</v>
+      </c>
+      <c r="R368" t="n">
+        <v>0.1398758549675758</v>
+      </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A369" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -22594,12 +24074,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q369" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A370" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -22654,12 +24138,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q370" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A371" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -22714,12 +24202,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q371" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A372" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -22774,12 +24266,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q372" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R372" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A373" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -22834,12 +24330,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q373" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A374" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -22894,12 +24394,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q374" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R374" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A375" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -22954,12 +24458,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q375" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R375" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>2018-10-01</t>
-        </is>
+      <c r="A376" s="2" t="n">
+        <v>43374</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -23014,12 +24522,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q376" t="n">
+        <v>1851</v>
+      </c>
+      <c r="R376" t="n">
+        <v>0.1570800077396975</v>
+      </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>2018-10-21</t>
-        </is>
+      <c r="A377" s="2" t="n">
+        <v>43394</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -23074,12 +24586,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q377" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R377" t="n">
+        <v>0.1602532343874526</v>
+      </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A378" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -23134,12 +24650,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q378" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R378" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A379" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -23194,12 +24714,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q379" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R379" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A380" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -23254,12 +24778,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q380" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R380" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A381" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -23314,6 +24842,12 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q381" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R381" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
